--- a/DataSheets/testNew.xlsx
+++ b/DataSheets/testNew.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ab020xd\IdeaProjects\KgaboSekhula\DataSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EBB2975-FC2B-4642-B33E-2F1B1C656173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94691817-5222-48DC-AB3B-24806E3BCB75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{E7BDC543-68CB-4E3D-8389-D66BFE0B821A}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="183">
   <si>
     <t>AccountNo</t>
   </si>
@@ -541,19 +541,55 @@
     <t>CC Reference</t>
   </si>
   <si>
-    <t>AUTOMATION</t>
-  </si>
-  <si>
-    <t>SHAMI</t>
+    <t>9508036252081</t>
+  </si>
+  <si>
+    <t>9508185495085</t>
+  </si>
+  <si>
+    <t>9508186225085</t>
+  </si>
+  <si>
+    <t>9508195295087</t>
+  </si>
+  <si>
+    <t>9508201298083</t>
+  </si>
+  <si>
+    <t>CHAWANE</t>
+  </si>
+  <si>
+    <t>TSHEPO</t>
+  </si>
+  <si>
+    <t>SEHUME</t>
+  </si>
+  <si>
+    <t>OTSHEPENG</t>
+  </si>
+  <si>
+    <t>MHLONGO</t>
+  </si>
+  <si>
+    <t>COMFORT</t>
+  </si>
+  <si>
+    <t>NYALUNGA</t>
+  </si>
+  <si>
+    <t>SIBUSISO</t>
+  </si>
+  <si>
+    <t>APPIES</t>
+  </si>
+  <si>
+    <t>NALEDI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="00000"/>
-  </numFmts>
   <fonts count="27">
     <font>
       <sz val="11"/>
@@ -1109,7 +1145,7 @@
     <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1146,9 +1182,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1803,10 +1836,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43D1F4CC-5002-4B6A-BCD2-EDE6985D940B}">
-  <dimension ref="A1:BM2"/>
+  <dimension ref="A1:BM6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D2" sqref="D2:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2064,17 +2097,17 @@
       <c r="C2" t="s">
         <v>166</v>
       </c>
-      <c r="D2" s="17">
-        <v>4048796392</v>
-      </c>
-      <c r="E2" s="16">
-        <v>8607295800084</v>
-      </c>
-      <c r="F2" s="15" t="s">
+      <c r="D2" s="16">
+        <v>4048806460</v>
+      </c>
+      <c r="E2" t="s">
         <v>168</v>
       </c>
-      <c r="G2" s="15" t="s">
-        <v>169</v>
+      <c r="F2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G2" t="s">
+        <v>174</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>155</v>
@@ -2248,6 +2281,782 @@
         <v>4048771299</v>
       </c>
       <c r="BM2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:65" ht="15" thickBot="1">
+      <c r="A3" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D3" s="16">
+        <v>4048806575</v>
+      </c>
+      <c r="E3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F3" t="s">
+        <v>175</v>
+      </c>
+      <c r="G3" t="s">
+        <v>176</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="J3" s="10">
+        <v>1.0220614195438099E+17</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="R3" s="9">
+        <v>1324</v>
+      </c>
+      <c r="S3" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="T3" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="U3" s="9">
+        <v>1234580</v>
+      </c>
+      <c r="V3" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="W3" s="9">
+        <v>1234580</v>
+      </c>
+      <c r="X3" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y3" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z3" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA3" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB3" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC3" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE3" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF3" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG3" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="AH3" s="9">
+        <v>2091</v>
+      </c>
+      <c r="AI3" s="9">
+        <v>32000</v>
+      </c>
+      <c r="AJ3" s="9">
+        <v>20990</v>
+      </c>
+      <c r="AK3" s="9">
+        <v>300</v>
+      </c>
+      <c r="AL3" s="9">
+        <v>200</v>
+      </c>
+      <c r="AM3" s="9">
+        <v>100</v>
+      </c>
+      <c r="AN3" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="AO3" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="AP3" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="AQ3" s="9">
+        <v>1234580</v>
+      </c>
+      <c r="AR3" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="AS3" s="9">
+        <v>2468655</v>
+      </c>
+      <c r="AT3" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="AU3" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AV3" s="9">
+        <v>0</v>
+      </c>
+      <c r="AW3" s="9">
+        <v>0</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>128</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>131</v>
+      </c>
+      <c r="BA3" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="BB3" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="BC3" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="BD3" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="BE3" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="BF3" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="BG3" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="BH3" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="BI3" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="BJ3" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="BK3" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="BL3" s="15">
+        <v>4048771299</v>
+      </c>
+      <c r="BM3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:65" ht="15" thickBot="1">
+      <c r="A4" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D4" s="16">
+        <v>4048806583</v>
+      </c>
+      <c r="E4" t="s">
+        <v>170</v>
+      </c>
+      <c r="F4" t="s">
+        <v>177</v>
+      </c>
+      <c r="G4" t="s">
+        <v>178</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="J4" s="10">
+        <v>1.0220614195438099E+17</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="R4" s="9">
+        <v>1324</v>
+      </c>
+      <c r="S4" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="T4" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="U4" s="9">
+        <v>1234580</v>
+      </c>
+      <c r="V4" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="W4" s="9">
+        <v>1234580</v>
+      </c>
+      <c r="X4" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y4" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z4" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA4" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB4" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC4" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD4" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE4" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF4" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG4" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="AH4" s="9">
+        <v>2091</v>
+      </c>
+      <c r="AI4" s="9">
+        <v>32000</v>
+      </c>
+      <c r="AJ4" s="9">
+        <v>20990</v>
+      </c>
+      <c r="AK4" s="9">
+        <v>300</v>
+      </c>
+      <c r="AL4" s="9">
+        <v>200</v>
+      </c>
+      <c r="AM4" s="9">
+        <v>100</v>
+      </c>
+      <c r="AN4" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="AO4" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="AP4" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="AQ4" s="9">
+        <v>1234580</v>
+      </c>
+      <c r="AR4" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="AS4" s="9">
+        <v>2468655</v>
+      </c>
+      <c r="AT4" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="AU4" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AV4" s="9">
+        <v>0</v>
+      </c>
+      <c r="AW4" s="9">
+        <v>0</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>128</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>131</v>
+      </c>
+      <c r="BA4" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="BB4" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="BC4" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="BD4" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="BE4" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="BF4" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="BG4" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="BH4" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="BI4" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="BJ4" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="BK4" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="BL4" s="15">
+        <v>4048771299</v>
+      </c>
+      <c r="BM4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:65" ht="15" thickBot="1">
+      <c r="A5" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D5" s="16">
+        <v>4048806606</v>
+      </c>
+      <c r="E5" t="s">
+        <v>171</v>
+      </c>
+      <c r="F5" t="s">
+        <v>179</v>
+      </c>
+      <c r="G5" t="s">
+        <v>180</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="J5" s="10">
+        <v>1.0220614195438099E+17</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q5" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="R5" s="9">
+        <v>1324</v>
+      </c>
+      <c r="S5" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="T5" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="U5" s="9">
+        <v>1234580</v>
+      </c>
+      <c r="V5" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="W5" s="9">
+        <v>1234580</v>
+      </c>
+      <c r="X5" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y5" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z5" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA5" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB5" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC5" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE5" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF5" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG5" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="AH5" s="9">
+        <v>2091</v>
+      </c>
+      <c r="AI5" s="9">
+        <v>32000</v>
+      </c>
+      <c r="AJ5" s="9">
+        <v>20990</v>
+      </c>
+      <c r="AK5" s="9">
+        <v>300</v>
+      </c>
+      <c r="AL5" s="9">
+        <v>200</v>
+      </c>
+      <c r="AM5" s="9">
+        <v>100</v>
+      </c>
+      <c r="AN5" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="AO5" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="AP5" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="AQ5" s="9">
+        <v>1234580</v>
+      </c>
+      <c r="AR5" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="AS5" s="9">
+        <v>2468655</v>
+      </c>
+      <c r="AT5" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="AU5" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AV5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AW5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>128</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>131</v>
+      </c>
+      <c r="BA5" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="BB5" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="BC5" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="BD5" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="BE5" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="BF5" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="BG5" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="BH5" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="BI5" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="BJ5" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="BK5" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="BL5" s="15">
+        <v>4048771299</v>
+      </c>
+      <c r="BM5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:65" ht="15" thickBot="1">
+      <c r="A6" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6" t="s">
+        <v>166</v>
+      </c>
+      <c r="D6" s="16">
+        <v>4048806614</v>
+      </c>
+      <c r="E6" t="s">
+        <v>172</v>
+      </c>
+      <c r="F6" t="s">
+        <v>181</v>
+      </c>
+      <c r="G6" t="s">
+        <v>182</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="J6" s="10">
+        <v>1.0220614195438099E+17</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q6" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="R6" s="9">
+        <v>1324</v>
+      </c>
+      <c r="S6" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="T6" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="U6" s="9">
+        <v>1234580</v>
+      </c>
+      <c r="V6" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="W6" s="9">
+        <v>1234580</v>
+      </c>
+      <c r="X6" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y6" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z6" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA6" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB6" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC6" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD6" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE6" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF6" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG6" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="AH6" s="9">
+        <v>2091</v>
+      </c>
+      <c r="AI6" s="9">
+        <v>32000</v>
+      </c>
+      <c r="AJ6" s="9">
+        <v>20990</v>
+      </c>
+      <c r="AK6" s="9">
+        <v>300</v>
+      </c>
+      <c r="AL6" s="9">
+        <v>200</v>
+      </c>
+      <c r="AM6" s="9">
+        <v>100</v>
+      </c>
+      <c r="AN6" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="AO6" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="AP6" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="AQ6" s="9">
+        <v>1234580</v>
+      </c>
+      <c r="AR6" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="AS6" s="9">
+        <v>2468655</v>
+      </c>
+      <c r="AT6" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="AU6" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AV6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AW6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>128</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>131</v>
+      </c>
+      <c r="BA6" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="BB6" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="BC6" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="BD6" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="BE6" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="BF6" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="BG6" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="BH6" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="BI6" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="BJ6" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="BK6" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="BL6" s="15">
+        <v>4048771299</v>
+      </c>
+      <c r="BM6">
         <v>20</v>
       </c>
     </row>
@@ -2256,8 +3065,16 @@
   <hyperlinks>
     <hyperlink ref="Y2" r:id="rId1" display="mailto:email@email.com" xr:uid="{61F6D70A-CD47-4545-9774-45DA8B952BBC}"/>
     <hyperlink ref="AU2" r:id="rId2" display="mailto:kin@email.com" xr:uid="{7C41D0AC-D599-4C77-AC56-EF394DD42B63}"/>
+    <hyperlink ref="Y3" r:id="rId3" display="mailto:email@email.com" xr:uid="{A303FEA2-26FE-4685-831C-ACB31CA7D031}"/>
+    <hyperlink ref="AU3" r:id="rId4" display="mailto:kin@email.com" xr:uid="{74877C30-ED94-4E80-A272-9E017E8A959A}"/>
+    <hyperlink ref="Y4" r:id="rId5" display="mailto:email@email.com" xr:uid="{DB3F3C41-D8A4-413F-AA45-5C419617CFD6}"/>
+    <hyperlink ref="AU4" r:id="rId6" display="mailto:kin@email.com" xr:uid="{E4A77A62-1EC6-42CE-8457-C165977685E9}"/>
+    <hyperlink ref="Y5" r:id="rId7" display="mailto:email@email.com" xr:uid="{1C76EF13-B263-4272-99A7-3266FAE7C7BD}"/>
+    <hyperlink ref="AU5" r:id="rId8" display="mailto:kin@email.com" xr:uid="{BF0BE233-F86A-438E-89AA-6EE2472F86B1}"/>
+    <hyperlink ref="Y6" r:id="rId9" display="mailto:email@email.com" xr:uid="{2DF4912B-7A6C-4D4F-A573-B21AC5B86E73}"/>
+    <hyperlink ref="AU6" r:id="rId10" display="mailto:kin@email.com" xr:uid="{E5BC4D8E-392D-4C63-BED9-0AF902BEF7E1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
--- a/DataSheets/testNew.xlsx
+++ b/DataSheets/testNew.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ab020xd\IdeaProjects\KgaboSekhula\DataSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94691817-5222-48DC-AB3B-24806E3BCB75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB12645E-93D4-4817-A6EB-368153A576B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{E7BDC543-68CB-4E3D-8389-D66BFE0B821A}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="184">
   <si>
     <t>AccountNo</t>
   </si>
@@ -584,6 +584,9 @@
   </si>
   <si>
     <t>NALEDI</t>
+  </si>
+  <si>
+    <t>Run</t>
   </si>
 </sst>
 </file>
@@ -1839,7 +1842,7 @@
   <dimension ref="A1:BM6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D6"/>
+      <selection activeCell="C3" sqref="C3:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2289,7 +2292,7 @@
         <v>154</v>
       </c>
       <c r="C3" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="D3" s="16">
         <v>4048806575</v>
@@ -2483,7 +2486,7 @@
         <v>154</v>
       </c>
       <c r="C4" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="D4" s="16">
         <v>4048806583</v>
@@ -2677,7 +2680,7 @@
         <v>154</v>
       </c>
       <c r="C5" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="D5" s="16">
         <v>4048806606</v>
@@ -2871,7 +2874,7 @@
         <v>154</v>
       </c>
       <c r="C6" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="D6" s="16">
         <v>4048806614</v>
